--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrh40\Desktop\フロム・ソフトウェア\提出課題\2_マルチスレッド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D109B02-60AB-471A-B5EF-4C3B01B4CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF06A90-7118-4D83-9B88-04A4BB5B425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB50BEF-EA34-40D6-A9D3-872237C410B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -127,7 +127,27 @@
   </si>
   <si>
     <t>[結果]
-速くはならなかった</t>
+速くはならなかった
+スレッド作成・破棄・ミューテックスのロックなどのオーバーヘッドが理由？</t>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てRelease, x86で計測</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,18 +532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC374A53-7A7C-4E08-B42A-353DBA60EF28}">
-  <dimension ref="B2:T4"/>
+  <dimension ref="B1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>0</v>

--- a/計測結果.xlsx
+++ b/計測結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrh40\Desktop\フロム・ソフトウェア\提出課題\2_マルチスレッド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrh40\Desktop\フロム・ソフトウェア\提出課題\2_マルチスレッド\MultiThread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF06A90-7118-4D83-9B88-04A4BB5B425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC6E2C-BB6B-4AC5-A20F-677EED3CC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB50BEF-EA34-40D6-A9D3-872237C410B7}"/>
   </bookViews>
@@ -126,27 +126,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[結果]
-速くはならなかった
-スレッド作成・破棄・ミューテックスのロックなどのオーバーヘッドが理由？</t>
-    <rPh sb="19" eb="21">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全てRelease, x86で計測</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
     </rPh>
     <rPh sb="15" eb="17">
       <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[結果]
+速くなった
+Tarai()を並列化できたのが理由</t>
+    <rPh sb="5" eb="6">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,11 +215,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +538,7 @@
   <dimension ref="B1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -546,7 +549,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -583,15 +586,15 @@
       <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -631,59 +634,59 @@
         <f>SUM(C3:L3) / 10</f>
         <v>8.2439903999999995</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>8.2440339999999992</v>
+        <v>4.3670489999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>8.2559930000000001</v>
+        <v>4.2563000000000004</v>
       </c>
       <c r="E4" s="1">
-        <v>8.2300880000000003</v>
+        <v>4.2688059999999997</v>
       </c>
       <c r="F4" s="1">
-        <v>8.3083749999999998</v>
+        <v>4.2872890000000003</v>
       </c>
       <c r="G4" s="1">
-        <v>8.2421679999999995</v>
+        <v>4.2373789999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>8.2135899999999999</v>
+        <v>4.3349659999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>8.3454739999999994</v>
+        <v>4.3206759999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>8.1911850000000008</v>
+        <v>4.2119689999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>8.2606739999999999</v>
+        <v>4.2199200000000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.2179520000000004</v>
+        <v>4.320322</v>
       </c>
       <c r="M4" s="1">
         <f>SUM(C4:L4) / 10</f>
-        <v>8.250953299999999</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+        <v>4.2824676000000004</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
